--- a/xauusd_daily.xlsx
+++ b/xauusd_daily.xlsx
@@ -1310,7 +1310,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -1332,6 +1332,10 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1415,7 +1419,7 @@
   <dimension ref="A1:U229"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
-      <selection activeCell="N26" activeCellId="0" pane="topLeft" sqref="N26:N27"/>
+      <selection activeCell="M11" activeCellId="0" pane="topLeft" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2106,7 +2110,7 @@
         <f aca="false">IF(H11&lt;I11,H11, I11)</f>
         <v>0.820000000000164</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="6" t="n">
         <v>6</v>
       </c>
       <c r="N11" s="0" t="n">
@@ -11970,7 +11974,7 @@
   <dimension ref="A1:O229"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
-      <selection activeCell="O1" activeCellId="1" pane="topLeft" sqref="N26:N27 O1"/>
+      <selection activeCell="O1" activeCellId="0" pane="topLeft" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
